--- a/documentation/BurndownChartExcel.xlsx
+++ b/documentation/BurndownChartExcel.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ERDEM\Desktop\documents\Concordia\Courses\Soen 341\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Desktop\SOEN341Project\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -304,9 +304,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="tr-TR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -353,7 +353,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -379,7 +378,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="tr-TR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -695,9 +694,56 @@
                 <c:pt idx="28">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-426D-46F5-8E0D-2F77CDDE4947}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1033,10 +1079,57 @@
                 <c:pt idx="28">
                   <c:v>48</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>32</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-426D-46F5-8E0D-2F77CDDE4947}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1442,6 +1535,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-426D-46F5-8E0D-2F77CDDE4947}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1750,10 +1848,57 @@
                 <c:pt idx="28">
                   <c:v>56</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>32</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-426D-46F5-8E0D-2F77CDDE4947}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1979,6 +2124,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-426D-46F5-8E0D-2F77CDDE4947}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2034,7 +2184,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2090793856"/>
@@ -2079,7 +2229,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2090785696"/>
@@ -2096,7 +2246,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2122,7 +2271,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="tr-TR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2152,7 +2301,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="tr-TR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2723,7 +2872,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafik 1"/>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3006,19 +3161,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>60</v>
       </c>
@@ -3032,7 +3187,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3049,7 +3204,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3066,7 +3221,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3083,7 +3238,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3100,7 +3255,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3117,7 +3272,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3134,7 +3289,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3151,7 +3306,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3168,7 +3323,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3185,7 +3340,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3202,7 +3357,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3219,7 +3374,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3236,7 +3391,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3253,7 +3408,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -3270,7 +3425,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3287,7 +3442,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3304,7 +3459,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3321,7 +3476,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3338,7 +3493,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -3355,7 +3510,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3372,7 +3527,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3389,7 +3544,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3406,7 +3561,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -3423,7 +3578,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -3440,7 +3595,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -3457,7 +3612,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -3474,7 +3629,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3491,7 +3646,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -3508,7 +3663,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -3525,7 +3680,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -3542,7 +3697,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -3559,7 +3714,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -3576,7 +3731,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -3593,7 +3748,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -3610,7 +3765,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -3627,7 +3782,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -3644,7 +3799,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -3661,7 +3816,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -3678,7 +3833,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -3695,7 +3850,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -3715,119 +3870,245 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>40</v>
       </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>47</v>
+      </c>
       <c r="D43">
         <v>31</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>41</v>
       </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>46</v>
+      </c>
       <c r="D44">
         <v>30</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>42</v>
       </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>45</v>
+      </c>
       <c r="D45">
         <v>29</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>43</v>
       </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>44</v>
+      </c>
       <c r="D46">
         <v>28</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>44</v>
       </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>43</v>
+      </c>
       <c r="D47">
         <v>27</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>45</v>
       </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>42</v>
+      </c>
       <c r="D48">
         <v>26</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>46</v>
       </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>40</v>
+      </c>
       <c r="D49">
         <v>25</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>47</v>
       </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>39</v>
+      </c>
       <c r="D50">
         <v>24</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>48</v>
       </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>38</v>
+      </c>
       <c r="D51">
         <v>23</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>49</v>
       </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>37</v>
+      </c>
       <c r="D52">
         <v>22</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>50</v>
       </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>36</v>
+      </c>
       <c r="D53">
         <v>21</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>51</v>
       </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>34</v>
+      </c>
       <c r="D54">
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>52</v>
       </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>33</v>
+      </c>
       <c r="D55">
         <v>19</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>53</v>
       </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>32</v>
+      </c>
       <c r="D56">
         <v>18</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -3835,7 +4116,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -3843,7 +4124,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -3851,7 +4132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -3859,7 +4140,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -3867,7 +4148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -3875,7 +4156,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -3883,7 +4164,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -3891,7 +4172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -3899,7 +4180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -3907,7 +4188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -3915,7 +4196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -3923,7 +4204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -3931,7 +4212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -3939,7 +4220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -3947,7 +4228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -3955,7 +4236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>74</v>
       </c>

--- a/documentation/BurndownChartExcel.xlsx
+++ b/documentation/BurndownChartExcel.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Desktop\SOEN341Project\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ERDEM\Desktop\Soen341P\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -304,9 +304,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="tr-TR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -353,6 +353,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -378,7 +379,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="tr-TR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -736,10 +737,40 @@
                 <c:pt idx="42">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-426D-46F5-8E0D-2F77CDDE4947}"/>
             </c:ext>
@@ -754,8 +785,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="2090785696"/>
-        <c:axId val="2090793856"/>
+        <c:axId val="439814576"/>
+        <c:axId val="439806960"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1121,11 +1152,41 @@
                 <c:pt idx="42">
                   <c:v>32</c:v>
                 </c:pt>
+                <c:pt idx="43">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>24</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-426D-46F5-8E0D-2F77CDDE4947}"/>
             </c:ext>
@@ -1535,7 +1596,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-426D-46F5-8E0D-2F77CDDE4947}"/>
             </c:ext>
@@ -1890,11 +1951,41 @@
                 <c:pt idx="42">
                   <c:v>32</c:v>
                 </c:pt>
+                <c:pt idx="43">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>24</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-426D-46F5-8E0D-2F77CDDE4947}"/>
             </c:ext>
@@ -2124,7 +2215,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-426D-46F5-8E0D-2F77CDDE4947}"/>
             </c:ext>
@@ -2140,11 +2231,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2090785696"/>
-        <c:axId val="2090793856"/>
+        <c:axId val="439814576"/>
+        <c:axId val="439806960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2090785696"/>
+        <c:axId val="439814576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2184,10 +2275,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2090793856"/>
+        <c:crossAx val="439806960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2195,7 +2286,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2090793856"/>
+        <c:axId val="439806960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2229,10 +2320,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2090785696"/>
+        <c:crossAx val="439814576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2246,6 +2337,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2271,7 +2363,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="tr-TR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2301,7 +2393,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="tr-TR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2875,7 +2967,7 @@
         <xdr:cNvPr id="2" name="Grafik 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3162,18 +3254,18 @@
   <dimension ref="A2:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>60</v>
       </c>
@@ -3187,7 +3279,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3204,7 +3296,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3221,7 +3313,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3238,7 +3330,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3255,7 +3347,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3272,7 +3364,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3289,7 +3381,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3306,7 +3398,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3323,7 +3415,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3340,7 +3432,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3357,7 +3449,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3374,7 +3466,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3391,7 +3483,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3408,7 +3500,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -3425,7 +3517,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3442,7 +3534,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3459,7 +3551,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3476,7 +3568,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3493,7 +3585,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -3510,7 +3602,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3527,7 +3619,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3544,7 +3636,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3561,7 +3653,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -3578,7 +3670,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -3595,7 +3687,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -3612,7 +3704,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -3629,7 +3721,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3646,7 +3738,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -3663,7 +3755,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -3680,7 +3772,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -3697,7 +3789,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -3714,7 +3806,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -3731,7 +3823,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -3748,7 +3840,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -3765,7 +3857,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -3782,7 +3874,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -3799,7 +3891,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -3816,7 +3908,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -3833,7 +3925,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -3850,7 +3942,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -3870,7 +3962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -3887,7 +3979,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -3904,7 +3996,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -3921,7 +4013,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -3938,7 +4030,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -3955,7 +4047,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -3972,7 +4064,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -3989,7 +4081,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -4006,7 +4098,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -4023,7 +4115,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -4040,7 +4132,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -4057,7 +4149,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -4074,7 +4166,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -4091,7 +4183,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -4108,87 +4200,177 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>54</v>
       </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>32</v>
+      </c>
       <c r="D57">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E57">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>55</v>
       </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>32</v>
+      </c>
       <c r="D58">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E58">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>56</v>
       </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>32</v>
+      </c>
       <c r="D59">
         <v>15</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E59">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>57</v>
       </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>30</v>
+      </c>
       <c r="D60">
         <v>14</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E60">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>58</v>
       </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>28</v>
+      </c>
       <c r="D61">
         <v>13</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E61">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>59</v>
       </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>27</v>
+      </c>
       <c r="D62">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E62">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>26</v>
+      </c>
       <c r="D63">
         <v>11</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E63">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>25</v>
+      </c>
       <c r="D64">
         <v>10</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E64">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>24</v>
+      </c>
       <c r="D65">
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E65">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>24</v>
+      </c>
       <c r="D66">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E66">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -4196,7 +4378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -4204,7 +4386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -4212,7 +4394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -4220,7 +4402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -4228,7 +4410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -4236,7 +4418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>74</v>
       </c>

--- a/documentation/BurndownChartExcel.xlsx
+++ b/documentation/BurndownChartExcel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>DAY1</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>DAY71</t>
+  </si>
+  <si>
+    <t>DAY72</t>
   </si>
 </sst>
 </file>
@@ -767,6 +770,27 @@
                 <c:pt idx="52">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -785,8 +809,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="439814576"/>
-        <c:axId val="439806960"/>
+        <c:axId val="-1263664048"/>
+        <c:axId val="-1263659696"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -831,188 +855,221 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sayfa1!$A$14:$A$73</c:f>
+              <c:f>Sayfa1!$A$4:$A$74</c:f>
               <c:strCache>
-                <c:ptCount val="60"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
+                  <c:v>DAY2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DAY3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DAY4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DAY5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DAY6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DAY7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DAY8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DAY9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DAY10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DAY11</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>DAY12</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
                   <c:v>DAY13</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="12">
                   <c:v>DAY14</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="13">
                   <c:v>DAY15</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="14">
                   <c:v>DAY16</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="15">
                   <c:v>DAY17</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="16">
                   <c:v>DAY18</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="17">
                   <c:v>DAY19</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="18">
                   <c:v>DAY20</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="19">
                   <c:v>DAY21</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="20">
                   <c:v>DAY22</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="21">
                   <c:v>DAY23</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="22">
                   <c:v>DAY24</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="23">
                   <c:v>DAY25</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="24">
                   <c:v>DAY26</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="25">
                   <c:v>DAY27</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="26">
                   <c:v>DAY28</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="27">
                   <c:v>DAY29</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="28">
                   <c:v>DAY30</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="29">
                   <c:v>DAY31</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="30">
                   <c:v>DAY32</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="31">
                   <c:v>DAY33</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="32">
                   <c:v>DAY34</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="33">
                   <c:v>DAY35</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="34">
                   <c:v>DAY36</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="35">
                   <c:v>DAY37</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="36">
                   <c:v>DAY38</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="37">
                   <c:v>DAY39</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="38">
                   <c:v>DAY40</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="39">
                   <c:v>DAY41</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="40">
                   <c:v>DAY42</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="41">
                   <c:v>DAY43</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="42">
                   <c:v>DAY44</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="43">
                   <c:v>DAY45</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="44">
                   <c:v>DAY46</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="45">
                   <c:v>DAY47</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="46">
                   <c:v>DAY48</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="47">
                   <c:v>DAY49</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="48">
                   <c:v>DAY50</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="49">
                   <c:v>DAY51</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="50">
                   <c:v>DAY52</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="51">
                   <c:v>DAY53</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="52">
                   <c:v>DAY54</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="53">
                   <c:v>DAY55</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="54">
                   <c:v>DAY56</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="55">
                   <c:v>DAY57</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="56">
                   <c:v>DAY58</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="57">
                   <c:v>DAY59</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="58">
                   <c:v>DAY60</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="59">
                   <c:v>DAY61</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="60">
                   <c:v>DAY62</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="61">
                   <c:v>DAY63</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="62">
                   <c:v>DAY64</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="63">
                   <c:v>DAY65</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="64">
                   <c:v>DAY66</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="65">
                   <c:v>DAY67</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="66">
                   <c:v>DAY68</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="67">
                   <c:v>DAY69</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="68">
                   <c:v>DAY70</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="69">
                   <c:v>DAY71</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>DAY72</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1181,6 +1238,27 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1220,188 +1298,221 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sayfa1!$A$14:$A$73</c:f>
+              <c:f>Sayfa1!$A$4:$A$74</c:f>
               <c:strCache>
-                <c:ptCount val="60"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
+                  <c:v>DAY2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DAY3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DAY4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DAY5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DAY6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DAY7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DAY8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DAY9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DAY10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DAY11</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>DAY12</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
                   <c:v>DAY13</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="12">
                   <c:v>DAY14</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="13">
                   <c:v>DAY15</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="14">
                   <c:v>DAY16</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="15">
                   <c:v>DAY17</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="16">
                   <c:v>DAY18</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="17">
                   <c:v>DAY19</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="18">
                   <c:v>DAY20</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="19">
                   <c:v>DAY21</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="20">
                   <c:v>DAY22</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="21">
                   <c:v>DAY23</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="22">
                   <c:v>DAY24</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="23">
                   <c:v>DAY25</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="24">
                   <c:v>DAY26</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="25">
                   <c:v>DAY27</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="26">
                   <c:v>DAY28</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="27">
                   <c:v>DAY29</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="28">
                   <c:v>DAY30</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="29">
                   <c:v>DAY31</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="30">
                   <c:v>DAY32</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="31">
                   <c:v>DAY33</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="32">
                   <c:v>DAY34</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="33">
                   <c:v>DAY35</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="34">
                   <c:v>DAY36</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="35">
                   <c:v>DAY37</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="36">
                   <c:v>DAY38</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="37">
                   <c:v>DAY39</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="38">
                   <c:v>DAY40</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="39">
                   <c:v>DAY41</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="40">
                   <c:v>DAY42</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="41">
                   <c:v>DAY43</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="42">
                   <c:v>DAY44</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="43">
                   <c:v>DAY45</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="44">
                   <c:v>DAY46</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="45">
                   <c:v>DAY47</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="46">
                   <c:v>DAY48</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="47">
                   <c:v>DAY49</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="48">
                   <c:v>DAY50</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="49">
                   <c:v>DAY51</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="50">
                   <c:v>DAY52</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="51">
                   <c:v>DAY53</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="52">
                   <c:v>DAY54</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="53">
                   <c:v>DAY55</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="54">
                   <c:v>DAY56</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="55">
                   <c:v>DAY57</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="56">
                   <c:v>DAY58</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="57">
                   <c:v>DAY59</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="58">
                   <c:v>DAY60</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="59">
                   <c:v>DAY61</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="60">
                   <c:v>DAY62</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="61">
                   <c:v>DAY63</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="62">
                   <c:v>DAY64</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="63">
                   <c:v>DAY65</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="64">
                   <c:v>DAY66</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="65">
                   <c:v>DAY67</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="66">
                   <c:v>DAY68</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="67">
                   <c:v>DAY69</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="68">
                   <c:v>DAY70</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="69">
                   <c:v>DAY71</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>DAY72</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1630,188 +1741,221 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sayfa1!$A$14:$A$73</c:f>
+              <c:f>Sayfa1!$A$4:$A$74</c:f>
               <c:strCache>
-                <c:ptCount val="60"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
+                  <c:v>DAY2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DAY3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DAY4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DAY5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DAY6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DAY7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DAY8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DAY9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DAY10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DAY11</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>DAY12</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
                   <c:v>DAY13</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="12">
                   <c:v>DAY14</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="13">
                   <c:v>DAY15</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="14">
                   <c:v>DAY16</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="15">
                   <c:v>DAY17</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="16">
                   <c:v>DAY18</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="17">
                   <c:v>DAY19</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="18">
                   <c:v>DAY20</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="19">
                   <c:v>DAY21</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="20">
                   <c:v>DAY22</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="21">
                   <c:v>DAY23</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="22">
                   <c:v>DAY24</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="23">
                   <c:v>DAY25</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="24">
                   <c:v>DAY26</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="25">
                   <c:v>DAY27</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="26">
                   <c:v>DAY28</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="27">
                   <c:v>DAY29</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="28">
                   <c:v>DAY30</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="29">
                   <c:v>DAY31</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="30">
                   <c:v>DAY32</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="31">
                   <c:v>DAY33</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="32">
                   <c:v>DAY34</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="33">
                   <c:v>DAY35</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="34">
                   <c:v>DAY36</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="35">
                   <c:v>DAY37</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="36">
                   <c:v>DAY38</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="37">
                   <c:v>DAY39</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="38">
                   <c:v>DAY40</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="39">
                   <c:v>DAY41</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="40">
                   <c:v>DAY42</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="41">
                   <c:v>DAY43</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="42">
                   <c:v>DAY44</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="43">
                   <c:v>DAY45</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="44">
                   <c:v>DAY46</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="45">
                   <c:v>DAY47</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="46">
                   <c:v>DAY48</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="47">
                   <c:v>DAY49</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="48">
                   <c:v>DAY50</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="49">
                   <c:v>DAY51</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="50">
                   <c:v>DAY52</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="51">
                   <c:v>DAY53</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="52">
                   <c:v>DAY54</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="53">
                   <c:v>DAY55</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="54">
                   <c:v>DAY56</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="55">
                   <c:v>DAY57</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="56">
                   <c:v>DAY58</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="57">
                   <c:v>DAY59</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="58">
                   <c:v>DAY60</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="59">
                   <c:v>DAY61</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="60">
                   <c:v>DAY62</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="61">
                   <c:v>DAY63</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="62">
                   <c:v>DAY64</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="63">
                   <c:v>DAY65</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="64">
                   <c:v>DAY66</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="65">
                   <c:v>DAY67</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="66">
                   <c:v>DAY68</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="67">
                   <c:v>DAY69</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="68">
                   <c:v>DAY70</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="69">
                   <c:v>DAY71</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>DAY72</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1980,6 +2124,27 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2016,188 +2181,221 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sayfa1!$A$14:$A$73</c:f>
+              <c:f>Sayfa1!$A$4:$A$74</c:f>
               <c:strCache>
-                <c:ptCount val="60"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
+                  <c:v>DAY2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DAY3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DAY4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DAY5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DAY6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DAY7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DAY8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DAY9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DAY10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DAY11</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>DAY12</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
                   <c:v>DAY13</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="12">
                   <c:v>DAY14</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="13">
                   <c:v>DAY15</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="14">
                   <c:v>DAY16</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="15">
                   <c:v>DAY17</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="16">
                   <c:v>DAY18</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="17">
                   <c:v>DAY19</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="18">
                   <c:v>DAY20</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="19">
                   <c:v>DAY21</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="20">
                   <c:v>DAY22</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="21">
                   <c:v>DAY23</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="22">
                   <c:v>DAY24</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="23">
                   <c:v>DAY25</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="24">
                   <c:v>DAY26</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="25">
                   <c:v>DAY27</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="26">
                   <c:v>DAY28</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="27">
                   <c:v>DAY29</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="28">
                   <c:v>DAY30</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="29">
                   <c:v>DAY31</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="30">
                   <c:v>DAY32</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="31">
                   <c:v>DAY33</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="32">
                   <c:v>DAY34</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="33">
                   <c:v>DAY35</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="34">
                   <c:v>DAY36</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="35">
                   <c:v>DAY37</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="36">
                   <c:v>DAY38</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="37">
                   <c:v>DAY39</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="38">
                   <c:v>DAY40</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="39">
                   <c:v>DAY41</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="40">
                   <c:v>DAY42</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="41">
                   <c:v>DAY43</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="42">
                   <c:v>DAY44</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="43">
                   <c:v>DAY45</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="44">
                   <c:v>DAY46</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="45">
                   <c:v>DAY47</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="46">
                   <c:v>DAY48</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="47">
                   <c:v>DAY49</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="48">
                   <c:v>DAY50</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="49">
                   <c:v>DAY51</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="50">
                   <c:v>DAY52</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="51">
                   <c:v>DAY53</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="52">
                   <c:v>DAY54</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="53">
                   <c:v>DAY55</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="54">
                   <c:v>DAY56</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="55">
                   <c:v>DAY57</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="56">
                   <c:v>DAY58</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="57">
                   <c:v>DAY59</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="58">
                   <c:v>DAY60</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="59">
                   <c:v>DAY61</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="60">
                   <c:v>DAY62</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="61">
                   <c:v>DAY63</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="62">
                   <c:v>DAY64</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="63">
                   <c:v>DAY65</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="64">
                   <c:v>DAY66</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="65">
                   <c:v>DAY67</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="66">
                   <c:v>DAY68</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="67">
                   <c:v>DAY69</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="68">
                   <c:v>DAY70</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="69">
                   <c:v>DAY71</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>DAY72</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2231,11 +2429,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="439814576"/>
-        <c:axId val="439806960"/>
+        <c:axId val="-1263664048"/>
+        <c:axId val="-1263659696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="439814576"/>
+        <c:axId val="-1263664048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2278,7 +2476,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439806960"/>
+        <c:crossAx val="-1263659696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2286,7 +2484,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="439806960"/>
+        <c:axId val="-1263659696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2323,7 +2521,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439814576"/>
+        <c:crossAx val="-1263664048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2337,6 +2535,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2967,7 +3169,7 @@
         <xdr:cNvPr id="2" name="Grafik 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3251,10 +3453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F73"/>
+  <dimension ref="A2:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4374,56 +4576,136 @@
       <c r="A67" t="s">
         <v>68</v>
       </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>24</v>
+      </c>
       <c r="D67">
         <v>7</v>
+      </c>
+      <c r="E67">
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>18</v>
+      </c>
       <c r="D68">
         <v>6</v>
+      </c>
+      <c r="E68">
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>18</v>
+      </c>
       <c r="D69">
         <v>5</v>
+      </c>
+      <c r="E69">
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>71</v>
       </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>14</v>
+      </c>
       <c r="D70">
         <v>4</v>
+      </c>
+      <c r="E70">
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>72</v>
       </c>
+      <c r="B71">
+        <v>6</v>
+      </c>
+      <c r="C71">
+        <v>8</v>
+      </c>
       <c r="D71">
         <v>3</v>
+      </c>
+      <c r="E71">
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
       <c r="D72">
         <v>2</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>74</v>
       </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
       <c r="D73">
         <v>1</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
